--- a/system_template/data/information.xlsx
+++ b/system_template/data/information.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\vendor\exceedone\exment\system_template\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DF62FC-4CD7-420C-ABE1-F0793650B817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="information" sheetId="1" r:id="rId4"/>
+    <sheet name="information" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -241,17 +246,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,28 +265,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -570,33 +585,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="47.131348" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="396.331787" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="396.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -672,9 +683,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -701,9 +712,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -730,9 +741,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -759,7 +770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -788,9 +799,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -818,17 +829,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/system_template/data/information.xlsx
+++ b/system_template/data/information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Dropbox\3_Develop\TFS_Exc\ExmentProject\vendor\exceedone\exment\system_template\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DF62FC-4CD7-420C-ABE1-F0793650B817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03327849-5081-4D26-A832-53A21DF29987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -98,15 +98,6 @@
   </si>
   <si>
     <t>Exmentへようこそ！</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Exmentは、かんたん、おやすいOSSシステムです。&amp;nbsp;&lt;/p&gt;
-&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; color: #333333; font-family: 'Source Sans Pro', 'Helvetica Neue', Helvetica, Arial, sans-serif;"&gt;現在、随時機能追加中です！&lt;/p&gt;
-&lt;ul&gt;
-&lt;li style="box-sizing: border-box; color: #333333; font-family: 'Source Sans Pro', 'Helvetica Neue', Helvetica, Arial, sans-serif;"&gt;公式サイト：&lt;a style="box-sizing: border-box; background-color: transparent; color: #3c8dbc; text-decoration-line: none;" href="https://exment.net/" target="_blank" rel="noopener"&gt;こちら&lt;/a&gt;&lt;/li&gt;
-&lt;li style="box-sizing: border-box; color: #333333; font-family: 'Source Sans Pro', 'Helvetica Neue', Helvetica, Arial, sans-serif;"&gt;GitHub：&lt;a style="box-sizing: border-box; background-color: transparent; color: #3c8dbc; text-decoration-line: none;" href="https://github.com/exceedone/exment" target="_blank" rel="noopener"&gt;こちら&lt;/a&gt;&lt;/li&gt;
-&lt;li style="box-sizing: border-box; color: #333333; font-family: 'Source Sans Pro', 'Helvetica Neue', Helvetica, Arial, sans-serif;"&gt;Document：&lt;a style="box-sizing: border-box; background-color: transparent; color: #3c8dbc; text-decoration-line: none;" href="https://exment.net/docs/#/" target="_blank" rel="noopener"&gt;こちら&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
   </si>
   <si>
     <t>2019-01-04 18:48:15</t>
@@ -161,9 +152,6 @@
   </si>
   <si>
     <t>7dc23b4c1680dc3d9bce</t>
-  </si>
-  <si>
-    <t>ユーザーに権限を追加、変更するには</t>
   </si>
   <si>
     <t>&lt;p&gt;既定の設定では、ユーザーを追加した場合でも、新規追加ユーザーにはほとんど、権限が振られていません。&lt;br /&gt;そのため、アクセスできるページはごくわずかです。&lt;/p&gt;
@@ -242,12 +230,186 @@
   <si>
     <t>2019-01-04 20:11:59</t>
   </si>
+  <si>
+    <t>ユーザーに権限を追加、変更するには</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p&gt;Exment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は、かんたん、お手頃なデータ管理Webシステムです。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;nbsp;&lt;/p&gt;
+&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; color: #333333; font-family: 'Source Sans Pro', 'Helvetica Neue', Helvetica, Arial, sans-serif;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現在、随時機能追加中です！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/p&gt;
+&lt;ul&gt;
+&lt;li style="box-sizing: border-box; color: #333333; font-family: 'Source Sans Pro', 'Helvetica Neue', Helvetica, Arial, sans-serif;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>公式サイト：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;a style="box-sizing: border-box; background-color: transparent; color: #3c8dbc; text-decoration-line: none;" href="https://exment.net/" target="_blank" rel="noopener"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こちら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/li&gt;
+&lt;li style="box-sizing: border-box; color: #333333; font-family: 'Source Sans Pro', 'Helvetica Neue', Helvetica, Arial, sans-serif;"&gt;GitHub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;a style="box-sizing: border-box; background-color: transparent; color: #3c8dbc; text-decoration-line: none;" href="https://github.com/exceedone/exment" target="_blank" rel="noopener"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こちら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/li&gt;
+&lt;li style="box-sizing: border-box; color: #333333; font-family: 'Source Sans Pro', 'Helvetica Neue', Helvetica, Arial, sans-serif;"&gt;Document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;a style="box-sizing: border-box; background-color: transparent; color: #3c8dbc; text-decoration-line: none;" href="https://exment.net/docs/#/" target="_blank" rel="noopener"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こちら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+    <rPh sb="17" eb="19">
+      <t>テゴロ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -258,6 +420,19 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,8 +455,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -588,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -693,8 +872,8 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -706,10 +885,10 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -717,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -735,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -746,13 +925,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -764,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -775,13 +954,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -793,10 +972,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -804,13 +983,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -822,10 +1001,10 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
